--- a/xArm positions.xlsx
+++ b/xArm positions.xlsx
@@ -1,162 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28801"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_2B59D2BFD360D8347BBB221159C458B25E07FDAE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Test 4</t>
-  </si>
-  <si>
-    <t>Test5</t>
-  </si>
-  <si>
-    <t>Test6</t>
-  </si>
-  <si>
-    <t>Test7</t>
-  </si>
-  <si>
-    <t>Platereader</t>
-  </si>
-  <si>
-    <t>lightbox</t>
-  </si>
-  <si>
-    <t>[-159.293, -193.525, 329.4, -180.00001984784282, 0.0, -89.99826240264628]</t>
-  </si>
-  <si>
-    <t>[-159.292, -193.522, 329.391, -180.00001984784282, 0.0, -89.99946561401605]</t>
-  </si>
-  <si>
-    <t>[-159.281, -193.542, 329.379, 180.00001984784282, -0.0, -89.99591327568622]</t>
-  </si>
-  <si>
-    <t>[-159.275, -193.564, 329.368, -180.00001984784282, 0.0, -89.99562679678866]</t>
-  </si>
-  <si>
-    <t>[-159.289, -193.523, 329.4, 180.00001984784282, -0.0, -89.99396521918278]</t>
-  </si>
-  <si>
-    <t>[-159.289, -193.535, 329.377, -180.00001984784282, 0.0, -89.99436628963937]</t>
-  </si>
-  <si>
-    <t>[-159.295, -193.517, 329.382, -180.00001984784282, 0.0, -90.00215851565316]</t>
-  </si>
-  <si>
-    <t>[-159.289, -193.521, 329.39, -180.00001984784282, 0.0, -89.999236430898]</t>
-  </si>
-  <si>
-    <t>[-159.287, -193.52, 329.39, -180.00001984784282, 0.0, -89.99814781108725]</t>
-  </si>
-  <si>
-    <t>[-121.441, -271.588, 329.384, -180.00001984784282, 0.0, -89.99826240264628]</t>
-  </si>
-  <si>
-    <t>[-99.111, -301.969, 266.013, -180.00001984784282, 0.0, -70.76246493827817]</t>
-  </si>
-  <si>
-    <t>[-137.595, -278.102, 289.088, 180.00001984784282, -0.0, -88.89262574538232]</t>
-  </si>
-  <si>
-    <t>[-76.79, -270.141, 264.116, -180.00001984784282, 0.0, -81.5146482174827]</t>
-  </si>
-  <si>
-    <t>[-159.216, -260.596, 198.361, 180.00001984784282, -0.0, -92.17796574266245]</t>
-  </si>
-  <si>
-    <t>[-148.329, -229.655, 290.962, -180.00001984784282, 0.0, -94.52021720915727]</t>
-  </si>
-  <si>
-    <t>[-124.522, -313.95, 264.027, -180.00001984784282, 0.0, -81.69868226127872]</t>
-  </si>
-  <si>
-    <t>[-126.871, -253.145, 280.221, -180.00001984784282, 0.0, -97.09182368104294]</t>
-  </si>
-  <si>
-    <t>[-101.119, -305.364, 275.216, -180.00001984784282, 0.0, -67.32827050582304]</t>
-  </si>
-  <si>
-    <t>[-67.438, -360.324, 221.16, -180.00001984784282, 0.0, -90.07933593065728]</t>
-  </si>
-  <si>
-    <t>[-51.719, -371.604, 227.022, 180.00001984784282, -0.0, -76.84269306020647]</t>
-  </si>
-  <si>
-    <t>[-31.228, -330.337, 210.74, 180.00001984784282, 0.0, -100.91975471031196]</t>
-  </si>
-  <si>
-    <t>[-124.496, -372.468, 204.81, -180.00001984784282, 0.0, -81.69868226127872]</t>
-  </si>
-  <si>
-    <t>[-81.053, -326.29, 227.725, -180.00001984784282, 0.0, -82.67981518966076]</t>
-  </si>
-  <si>
-    <t>[-55.564, -419.743, 178.044, -180.00001984784282, 0.0, -77.60254968810895]</t>
-  </si>
-  <si>
-    <t>[-24.92, -417.155, 162.875, 180.00001984784282, -0.0, -90.22904980252497]</t>
-  </si>
-  <si>
-    <t>[-4.635, -390.021, 170.908, 180.00001984784282, 0.0, -96.03460195746754]</t>
-  </si>
-  <si>
-    <t>[-121.048, -432.026, 152.209, -180.00001984784282, 0.0, -76.20642342871368]</t>
-  </si>
-  <si>
-    <t>[-82.029, -390.162, 119.53, -180.00001984784282, 0.0, -82.67981518966076]</t>
-  </si>
-  <si>
-    <t>[-19.998, -513.169, 78.223, 180.00001984784282, 0.0, -93.92411191910317]</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -171,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -495,136 +420,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Test3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Test 4</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Test5</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Test6</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Test7</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Platereader</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>lightbox</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>test11</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[-159.293, -193.525, 329.4, -180.00001984784282, 0.0, -89.99826240264628]</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[-159.292, -193.522, 329.391, -180.00001984784282, 0.0, -89.99946561401605]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[-159.281, -193.542, 329.379, 180.00001984784282, -0.0, -89.99591327568622]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[-159.275, -193.564, 329.368, -180.00001984784282, 0.0, -89.99562679678866]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[-159.289, -193.523, 329.4, 180.00001984784282, -0.0, -89.99396521918278]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[-159.289, -193.535, 329.377, -180.00001984784282, 0.0, -89.99436628963937]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[-159.295, -193.517, 329.382, -180.00001984784282, 0.0, -90.00215851565316]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[-159.289, -193.521, 329.39, -180.00001984784282, 0.0, -89.999236430898]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[-159.287, -193.52, 329.39, -180.00001984784282, 0.0, -89.99814781108725]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[-159.275, -193.564, 329.368, -180.00001984784282, 0.0, -89.99562679678866]</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>[-121.441, -271.588, 329.384, -180.00001984784282, 0.0, -89.99826240264628]</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[-99.111, -301.969, 266.013, -180.00001984784282, 0.0, -70.76246493827817]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[-137.595, -278.102, 289.088, 180.00001984784282, -0.0, -88.89262574538232]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[-76.79, -270.141, 264.116, -180.00001984784282, 0.0, -81.5146482174827]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[-159.216, -260.596, 198.361, 180.00001984784282, -0.0, -92.17796574266245]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[-148.329, -229.655, 290.962, -180.00001984784282, 0.0, -94.52021720915727]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[-124.522, -313.95, 264.027, -180.00001984784282, 0.0, -81.69868226127872]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[-126.871, -253.145, 280.221, -180.00001984784282, 0.0, -97.09182368104294]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[-101.119, -305.364, 275.216, -180.00001984784282, 0.0, -67.32827050582304]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[-137.949, -299.169, 291.661, -180.00001984784282, 0.0, -84.0004829074373]</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[-67.438, -360.324, 221.16, -180.00001984784282, 0.0, -90.07933593065728]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[-51.719, -371.604, 227.022, 180.00001984784282, -0.0, -76.84269306020647]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[-31.228, -330.337, 210.74, 180.00001984784282, 0.0, -100.91975471031196]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[-124.496, -372.468, 204.81, -180.00001984784282, 0.0, -81.69868226127872]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[-81.053, -326.29, 227.725, -180.00001984784282, 0.0, -82.67981518966076]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[-55.564, -419.743, 178.044, -180.00001984784282, 0.0, -77.60254968810895]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[-24.92, -417.155, 162.875, 180.00001984784282, -0.0, -90.22904980252497]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[-4.635, -390.021, 170.908, 180.00001984784282, 0.0, -96.03460195746754]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[-121.048, -432.026, 152.209, -180.00001984784282, 0.0, -76.20642342871368]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[-82.029, -390.162, 119.53, -180.00001984784282, 0.0, -82.67981518966076]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[-19.998, -513.169, 78.223, 180.00001984784282, 0.0, -93.92411191910317]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
